--- a/results/I2_N10_T100_C400_0_P4_res.xlsx
+++ b/results/I2_N10_T100_C400_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.16742239378572</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.009000062942504883</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.0671278619396</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.12074022476546</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34.69770569366315</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.71579249669672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>36.71579249669672</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.72107346555759</v>
+        <v>30.60033324079214</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.40354251021169</v>
+        <v>32.31224998648503</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.94987179065701</v>
+        <v>34.76592070603971</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.73266487536227</v>
+        <v>32.61192465059682</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.66758337047729</v>
+        <v>36.71671453559702</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.23171342868595</v>
+        <v>37.27819014430416</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.83745476036248</v>
+        <v>37.90090852477161</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>191.4200000000015</v>
+        <v>109.9450000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2700000000015</v>
+        <v>117.5900000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>197.9850000000015</v>
+        <v>113.2700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.5900000000015</v>
+        <v>119.1550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.15</v>
+        <v>115.8050000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>295.9199999999997</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>323.5</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>294.2649999999996</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>311.1</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>297.3649999999997</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>69.88000000000022</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>76.32000000000022</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>72.41000000000021</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>72.64500000000022</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.89000000000021</v>
+        <v>297.3649999999996</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>274.4950000000024</v>
+        <v>193.0200000000017</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>282.9900000000024</v>
+        <v>202.3100000000017</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>275.9600000000024</v>
+        <v>191.2450000000017</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.3600000000025</v>
+        <v>208.9250000000017</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0050000000024</v>
+        <v>197.6600000000017</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>223.2900000000002</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>243.4450000000001</v>
+        <v>159.2149999999988</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9450000000002</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>227.1450000000002</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>216.55</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>155.3650000000007</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>247.1799999999993</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000007</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>163.3750000000007</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>157.6200000000007</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>332.4450000000016</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>341.6700000000017</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>337.6900000000016</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>350.0150000000017</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>337.9200000000017</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>295.9199999999997</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>323.5</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>294.2649999999996</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>311.1</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>297.3649999999997</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>332.4450000000016</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>341.6700000000017</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>337.6900000000016</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>350.0150000000017</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>337.9200000000017</v>
+        <v>297.3649999999996</v>
       </c>
     </row>
   </sheetData>

--- a/results/I2_N10_T100_C400_0_P4_res.xlsx
+++ b/results/I2_N10_T100_C400_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.0671278619396</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.01200008392333984</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.0671278619396</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.61192465059682</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.69770569366315</v>
+        <v>36.73266487536227</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.60033324079214</v>
+        <v>32.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>32.61192465059682</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>36.71671453559702</v>
+        <v>37.90090852477161</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.27819014430416</v>
+        <v>39.31314932600328</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.90090852477161</v>
+        <v>32.66758337047729</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>109.9450000000008</v>
+        <v>250.970000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.5900000000008</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>113.2700000000008</v>
+        <v>252.9750000000009</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>119.1550000000008</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>115.8050000000008</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>235.775</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>229.025</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.42</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>226.76</v>
+        <v>350.0150000000017</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.56</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>46.91999999999942</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>36.10499999999942</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>34.91499999999942</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>37.48999999999942</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1542,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.0200000000017</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>202.3100000000017</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>191.2450000000017</v>
+        <v>139.7050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>208.9250000000017</v>
+        <v>150.4250000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>197.6600000000017</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>250.970000000001</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>260.9900000000009</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>252.975000000001</v>
+        <v>61.72999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>269.580000000001</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>250.575000000001</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>250.970000000001</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>260.9900000000009</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>252.975000000001</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>269.580000000001</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>250.575000000001</v>
+        <v>297.3649999999996</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>235.775</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>229.025</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>213.42</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>226.76</v>
+        <v>350.0150000000017</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>221.56</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>295.9199999999996</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>323.5</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>294.2649999999996</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>311.1</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>297.3649999999996</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
   </sheetData>
